--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,26 +532,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
-    <col width="8.796875" customWidth="1" style="12" min="8" max="8"/>
-    <col width="8.796875" customWidth="1" style="12" min="9" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col customWidth="1" max="8" min="8" style="12" width="8.796875"/>
+    <col customWidth="1" max="16384" min="9" style="12" width="8.796875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" thickBot="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>469</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>470</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>472</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>473</v>
       </c>
@@ -665,7 +733,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>474</v>
       </c>
@@ -698,10 +766,9 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -713,7 +780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -736,7 +803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,26 +464,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
-    <col customWidth="1" max="8" min="8" style="12" width="8.796875"/>
-    <col customWidth="1" max="16384" min="9" style="12" width="8.796875"/>
+    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="8.796875" customWidth="1" style="12" min="8" max="8"/>
+    <col width="8.796875" customWidth="1" style="12" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>469</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>470</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>472</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>473</v>
       </c>
@@ -733,7 +665,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>474</v>
       </c>
@@ -766,9 +698,10 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -780,7 +713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -792,7 +725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -803,7 +736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,77 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HTML Tag is i***** for the start and the end of HTML document</t>
+  </si>
+  <si>
+    <t>indication</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>HTML Tag is indication for the start and the end of HTML d*****</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>HTML Tag for English language</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
+  </si>
+  <si>
+    <t>doctype</t>
+  </si>
+  <si>
+    <t>HTML Closing Tag is located in the ***** of the document</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>HTML Tag is empty element</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +220,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,242 +537,178 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
-    <col width="8.796875" customWidth="1" style="12" min="8" max="8"/>
-    <col width="8.796875" customWidth="1" style="12" min="9" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col customWidth="1" max="8" min="8" style="12" width="8.796875"/>
+    <col customWidth="1" max="16384" min="9" style="12" width="8.796875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="7" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" spans="1:7" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>469</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>HTML Tag is i***** for the start and the end of HTML document</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>indication</t>
-        </is>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>470</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>HTML Tag is indication for the start and the end of HTML d*****</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" t="n">
         <v>471</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>HTML Tag for English language</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
-        </is>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>472</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>doctype</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" t="n">
         <v>473</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>HTML Closing Tag is located in the ***** of the document</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" t="n">
         <v>474</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>HTML Tag is empty element</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -713,7 +720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -736,7 +743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,77 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>HTML Tag is i***** for the start and the end of HTML document</t>
-  </si>
-  <si>
-    <t>indication</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>HTML Tag is indication for the start and the end of HTML d*****</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>HTML Tag for English language</t>
-  </si>
-  <si>
-    <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
-  </si>
-  <si>
-    <t>doctype</t>
-  </si>
-  <si>
-    <t>HTML Closing Tag is located in the ***** of the document</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>HTML Tag is empty element</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -220,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -537,178 +466,242 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
-    <col customWidth="1" max="8" min="8" style="12" width="8.796875"/>
-    <col customWidth="1" max="16384" min="9" style="12" width="8.796875"/>
+    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="8.796875" customWidth="1" style="12" min="8" max="8"/>
+    <col width="8.796875" customWidth="1" style="12" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" spans="1:7" thickBot="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>469</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>HTML Tag is i***** for the start and the end of HTML document</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>indication</t>
+        </is>
       </c>
       <c r="F2" s="3" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>470</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>HTML Tag is indication for the start and the end of HTML d*****</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
       </c>
       <c r="F3" s="3" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" t="n">
         <v>471</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>HTML Tag for English language</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
+        </is>
       </c>
       <c r="F4" s="3" t="n"/>
-      <c r="G4" t="s">
-        <v>10</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>472</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>doctype</t>
+        </is>
       </c>
       <c r="F5" s="4" t="n"/>
-      <c r="G5" t="s">
-        <v>10</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>473</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>HTML Closing Tag is located in the ***** of the document</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
       </c>
       <c r="F6" s="4" t="n"/>
-      <c r="G6" t="s">
-        <v>10</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>474</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>HTML Tag is empty element</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:7"/>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -720,7 +713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -732,7 +725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -743,7 +736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
-    <col width="8.796875" customWidth="1" style="12" min="8" max="8"/>
-    <col width="8.796875" customWidth="1" style="12" min="9" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col customWidth="1" max="8" min="8" style="12" width="8.796875"/>
+    <col customWidth="1" max="16384" min="9" style="12" width="8.796875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" thickBot="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>469</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>470</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>472</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>473</v>
       </c>
@@ -665,7 +733,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>474</v>
       </c>
@@ -701,7 +769,7 @@
     <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -713,7 +781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -736,7 +804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -1,41 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\Tag\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18464A4-3270-438D-9768-F4F85CA0793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>indication</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
+  </si>
+  <si>
+    <t>doctype</t>
+  </si>
+  <si>
+    <t>HTML Closing Tag is located in the ***** of the document</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>HTML-Tag is i***** for the start and the end of HTML document</t>
+  </si>
+  <si>
+    <t>HTML-Tag is indication for the start and the end of HTML d*****</t>
+  </si>
+  <si>
+    <t>Write HTML-Tag for English language</t>
+  </si>
+  <si>
+    <t>HTML-Tag is empty element</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -149,119 +225,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -527,249 +544,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D7" pane="bottomLeft" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
-    <col customWidth="1" max="8" min="8" style="12" width="8.796875"/>
-    <col customWidth="1" max="16384" min="9" style="12" width="8.796875"/>
+    <col min="1" max="1" width="5.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="8.796875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="12"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" thickBot="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="7" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>469</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>HTML Tag is i***** for the start and the end of HTML document</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>indication</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>470</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>HTML Tag is indication for the start and the end of HTML d*****</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>471</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>HTML Tag for English language</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>472</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>doctype</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>473</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>HTML Closing Tag is located in the ***** of the document</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>474</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>HTML Tag is empty element</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -781,7 +729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -793,7 +741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -804,7 +752,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -1,117 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Programming Language\Html\Tag\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18464A4-3270-438D-9768-F4F85CA0793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>indication</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
-  </si>
-  <si>
-    <t>doctype</t>
-  </si>
-  <si>
-    <t>HTML Closing Tag is located in the ***** of the document</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>HTML-Tag is i***** for the start and the end of HTML document</t>
-  </si>
-  <si>
-    <t>HTML-Tag is indication for the start and the end of HTML d*****</t>
-  </si>
-  <si>
-    <t>Write HTML-Tag for English language</t>
-  </si>
-  <si>
-    <t>HTML-Tag is empty element</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -228,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -544,177 +459,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
-    <col min="8" max="9" width="8.796875" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="12"/>
+    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="8.796875" customWidth="1" style="12" min="8" max="9"/>
+    <col width="8.796875" customWidth="1" style="12" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" t="n">
+        <v>469</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>HTML-Tag is i***** for the start and the end of HTML document</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>indication</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>469</v>
-      </c>
-      <c r="B2">
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" t="n">
+        <v>470</v>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>HTML-Tag is indication for the start and the end of HTML d*****</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>470</v>
-      </c>
-      <c r="B3">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>471</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" t="s">
-        <v>9</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Write HTML-Tag for English language</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>471</v>
-      </c>
-      <c r="B4">
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" t="n">
+        <v>472</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" t="s">
-        <v>9</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>doctype</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>472</v>
-      </c>
-      <c r="B5">
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="A6" t="n">
+        <v>473</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" t="s">
-        <v>9</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>HTML Closing Tag is located in the ***** of the document</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>473</v>
-      </c>
-      <c r="B6">
+    <row r="7" ht="27.6" customHeight="1">
+      <c r="A7" t="n">
+        <v>474</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" t="s">
-        <v>9</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>HTML-Tag is empty element</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>474</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -753,6 +737,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
-    <col width="8.796875" customWidth="1" style="12" min="8" max="9"/>
-    <col width="8.796875" customWidth="1" style="12" min="10" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col customWidth="1" max="9" min="8" style="12" width="8.796875"/>
+    <col customWidth="1" max="16384" min="10" style="12" width="8.796875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" thickBot="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>469</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>470</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>472</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>473</v>
       </c>
@@ -665,7 +733,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>474</v>
       </c>
@@ -701,7 +769,7 @@
     <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -713,7 +781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -736,7 +804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
-    <col customWidth="1" max="9" min="8" style="12" width="8.796875"/>
-    <col customWidth="1" max="16384" min="10" style="12" width="8.796875"/>
+    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="8.796875" customWidth="1" style="12" min="8" max="9"/>
+    <col width="8.796875" customWidth="1" style="12" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>469</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>470</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>472</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>473</v>
       </c>
@@ -733,7 +665,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>474</v>
       </c>
@@ -769,7 +701,7 @@
     <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -781,7 +713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -793,7 +725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -804,7 +736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,26 +532,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
-    <col width="8.796875" customWidth="1" style="12" min="8" max="9"/>
-    <col width="8.796875" customWidth="1" style="12" min="10" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col customWidth="1" max="9" min="8" style="12" width="8.796875"/>
+    <col customWidth="1" max="16384" min="10" style="12" width="8.796875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" thickBot="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>469</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>470</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>472</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>473</v>
       </c>
@@ -665,7 +733,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>474</v>
       </c>
@@ -698,10 +766,9 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -713,7 +780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -736,7 +803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,26 +464,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
-    <col customWidth="1" max="9" min="8" style="12" width="8.796875"/>
-    <col customWidth="1" max="16384" min="10" style="12" width="8.796875"/>
+    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="8.796875" customWidth="1" style="12" min="8" max="9"/>
+    <col width="8.796875" customWidth="1" style="12" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>469</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>470</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>472</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>473</v>
       </c>
@@ -733,7 +665,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>474</v>
       </c>
@@ -766,9 +698,10 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -780,7 +713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -792,7 +725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -803,7 +736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -698,7 +766,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -766,6 +698,7 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,77 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HTML-Tag is i***** for the start and the end of HTML document</t>
+  </si>
+  <si>
+    <t>indication</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>HTML-Tag is indication for the start and the end of HTML d*****</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>Write HTML-Tag for English language</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
+  </si>
+  <si>
+    <t>doctype</t>
+  </si>
+  <si>
+    <t>HTML Closing Tag is located in the ***** of the document</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>HTML-Tag is empty element</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +220,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,242 +537,178 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
-    <col width="8.796875" customWidth="1" style="12" min="8" max="9"/>
-    <col width="8.796875" customWidth="1" style="12" min="10" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col customWidth="1" max="9" min="8" style="12" width="8.796875"/>
+    <col customWidth="1" max="16384" min="10" style="12" width="8.796875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="7" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" spans="1:7" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>469</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>HTML-Tag is i***** for the start and the end of HTML document</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>indication</t>
-        </is>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>470</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>HTML-Tag is indication for the start and the end of HTML d*****</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" t="n">
         <v>471</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Write HTML-Tag for English language</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
-        </is>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>472</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>doctype</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" t="n">
         <v>473</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>HTML Closing Tag is located in the ***** of the document</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="n"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" t="n">
         <v>474</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>HTML-Tag is empty element</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -713,7 +720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -736,7 +743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,77 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>HTML-Tag is i***** for the start and the end of HTML document</t>
-  </si>
-  <si>
-    <t>indication</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>HTML-Tag is indication for the start and the end of HTML d*****</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>Write HTML-Tag for English language</t>
-  </si>
-  <si>
-    <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
-  </si>
-  <si>
-    <t>doctype</t>
-  </si>
-  <si>
-    <t>HTML Closing Tag is located in the ***** of the document</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>HTML-Tag is empty element</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -220,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -537,178 +466,242 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="10" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="10" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="2" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="2" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
-    <col customWidth="1" max="9" min="8" style="12" width="8.796875"/>
-    <col customWidth="1" max="16384" min="10" style="12" width="8.796875"/>
+    <col width="5.796875" customWidth="1" style="9" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="10" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="10" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="8.796875" customWidth="1" style="12" min="8" max="9"/>
+    <col width="8.796875" customWidth="1" style="12" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="8" spans="1:7" thickBot="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="8" thickBot="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>469</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>HTML-Tag is i***** for the start and the end of HTML document</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>indication</t>
+        </is>
       </c>
       <c r="F2" s="3" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>470</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>HTML-Tag is indication for the start and the end of HTML d*****</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
       </c>
       <c r="F3" s="3" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" t="n">
         <v>471</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Write HTML-Tag for English language</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>&lt;html lang="en"&gt;&lt;/html&gt;</t>
+        </is>
       </c>
       <c r="F4" s="3" t="n"/>
-      <c r="G4" t="s">
-        <v>10</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>472</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>doctype</t>
+        </is>
       </c>
       <c r="F5" s="4" t="n"/>
-      <c r="G5" t="s">
-        <v>10</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>473</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>HTML Closing Tag is located in the ***** of the document</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
       </c>
       <c r="F6" s="4" t="n"/>
-      <c r="G6" t="s">
-        <v>10</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>474</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>HTML-Tag is empty element</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:7"/>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -720,7 +713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -732,7 +725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -743,7 +736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +602,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>HTML-Tag is i***** for the start and the end of HTML document</t>
+          <t>HTML-Tag is i***************** for the start and the end of HTML document</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -563,7 +631,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>HTML-Tag is indication for the start and the end of HTML d*****</t>
+          <t>H*******-Tag is indication for the start and the end of H******* d*********</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -621,7 +689,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>HTML Opening Tag is located in the start of the document after the ***** tag</t>
+          <t>H****** Opening Tag is located in the start of the document after the ********* tag</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -650,7 +718,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>HTML Closing Tag is located in the ***** of the document</t>
+          <t>HTML Closing Tag is located in the *** of the document</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">

--- a/Questions/Programming Language/Html/Tag/Html.xlsx
+++ b/Questions/Programming Language/Html/Tag/Html.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -602,7 +534,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>HTML-Tag is i***************** for the start and the end of HTML document</t>
+          <t>HTML-Tag is i***** for the start and the end of HTML document</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -631,7 +563,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>H*******-Tag is indication for the start and the end of H******* d*********</t>
+          <t>H*****-Tag is indication for the start and the end of H***** d*****</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -689,7 +621,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>H****** Opening Tag is located in the start of the document after the ********* tag</t>
+          <t>H***** Opening Tag is located in the start of the document after the ***** tag</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
